--- a/Dokumentáció/tesztelés/Teszteles.xlsx
+++ b/Dokumentáció/tesztelés/Teszteles.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="27945" windowHeight="12300"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="80">
   <si>
     <t>Mit</t>
   </si>
@@ -46,7 +62,7 @@
     <t>I</t>
   </si>
   <si>
-    <t>megfelelo figyelmeztetés</t>
+    <t>megfelelő figyelmeztetés</t>
   </si>
   <si>
     <t>Felhasználó név bemenet</t>
@@ -55,7 +71,7 @@
     <t>szokatlan karakterek (pl: ?)</t>
   </si>
   <si>
-    <t>megfelelo tárolás, vizsgálás, bejelentkezés</t>
+    <t>megfelelő tárolás, vizsgálás, bejelentkezés</t>
   </si>
   <si>
     <t>Felhasználóio fiók létrehozása</t>
@@ -95,89 +111,607 @@
   </si>
   <si>
     <t>további funkcionalitás megvalósítása</t>
+  </si>
+  <si>
+    <t>test non exist, test</t>
+  </si>
+  <si>
+    <t>PHP error; Nincs felhasználó -&gt; null érték</t>
+  </si>
+  <si>
+    <t>Vizsgálat felhasználónév létezésére</t>
+  </si>
+  <si>
+    <t>Nincs hiba, alert a felhasználónak,</t>
+  </si>
+  <si>
+    <t>Térkép interakció</t>
+  </si>
+  <si>
+    <t>mozgatás egérrel</t>
+  </si>
+  <si>
+    <t>Nem meghatározható mozgás</t>
+  </si>
+  <si>
+    <t>window.scrollBy(); nem megfelelő erre a célra</t>
+  </si>
+  <si>
+    <t>Megfelelő mértékű mozgás</t>
+  </si>
+  <si>
+    <t>svg.style.transform; tulajdonság felhasználása</t>
+  </si>
+  <si>
+    <t>nagyítás</t>
+  </si>
+  <si>
+    <t>Kisebb országokra (pl: Vatikán) nem lehet eléggé ránagyítani</t>
+  </si>
+  <si>
+    <t>maxScale; konstans megnövelése</t>
+  </si>
+  <si>
+    <t>Kisebb országokra kényelmesen rá lehet nagyítani</t>
+  </si>
+  <si>
+    <t>Sikeres átugrás a főoldalra, bejelentkezési adtaok ideiglenes mentése</t>
+  </si>
+  <si>
+    <t>Főoldal</t>
+  </si>
+  <si>
+    <t>bejelenkezés utáni megjelenés</t>
+  </si>
+  <si>
+    <t>JSON fiájl sikeresen betölt</t>
+  </si>
+  <si>
+    <t>Navbar</t>
+  </si>
+  <si>
+    <t>megjelenés</t>
+  </si>
+  <si>
+    <t>Sarok nincs lekerekítve</t>
+  </si>
+  <si>
+    <t>Megfelelő animáció, színek</t>
+  </si>
+  <si>
+    <t>background: none</t>
+  </si>
+  <si>
+    <t>Információs ablak</t>
+  </si>
+  <si>
+    <t>több országra kattintás</t>
+  </si>
+  <si>
+    <t>A tartalom nem űrül, egyre több adat gyülemlik fel az ablakban</t>
+  </si>
+  <si>
+    <t>innerHtml, tulajdonság fölülírása</t>
+  </si>
+  <si>
+    <t>Megfelelő adatok, zászló; új ország kiválasztása esetén csak at új adatok láthatóak</t>
+  </si>
+  <si>
+    <t>Elemek csak részben fordulnak meg</t>
+  </si>
+  <si>
+    <t>tényleges animáció készítése</t>
+  </si>
+  <si>
+    <t>Folyamatos forgás</t>
+  </si>
+  <si>
+    <t>Alakzatok körvonala nem megfelelő színű</t>
+  </si>
+  <si>
+    <t>CSS-ben leszűkített szelektor</t>
+  </si>
+  <si>
+    <t>megfelelő szín</t>
+  </si>
+  <si>
+    <t>országok adatai</t>
+  </si>
+  <si>
+    <t>Egyes országok neve nem megfelelő</t>
+  </si>
+  <si>
+    <t>rossz adatok</t>
+  </si>
+  <si>
+    <t>Nem megfelelő link</t>
+  </si>
+  <si>
+    <t>api/signInResolve</t>
+  </si>
+  <si>
+    <t>Mindig Kazakhsztán adati jelennek meg</t>
+  </si>
+  <si>
+    <t>lekérdezési adatok megfelelő változóbaírása</t>
+  </si>
+  <si>
+    <t>Megfelelő adatok, zászló</t>
+  </si>
+  <si>
+    <t>Görhethető, üres html háttér látszódik</t>
+  </si>
+  <si>
+    <t>egész oldal iframe-ben jelent meg</t>
+  </si>
+  <si>
+    <t>Nem görgethető, az oldal az ablak méretét veszi fel</t>
+  </si>
+  <si>
+    <t>Meglátogatás nyomógomb</t>
+  </si>
+  <si>
+    <t>JS error</t>
+  </si>
+  <si>
+    <t>resp.text() -&gt; resp.json()</t>
+  </si>
+  <si>
+    <t>belépési oldal kikerülése</t>
+  </si>
+  <si>
+    <t>Bejelentkezve marad az előző felhasználó</t>
+  </si>
+  <si>
+    <t>localStorage-ban lévő értékek felülírása, vizsgálata</t>
+  </si>
+  <si>
+    <t>A főoldal jelenik meg, bejelentkezés nélkül használhatja</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="12">
-    <border/>
+  <borders count="20">
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <bottom style="thin">
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -186,17 +720,22 @@
       <right style="double">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -211,17 +750,20 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -236,8 +778,10 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -247,65 +791,331 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="20">
     <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFCC0000"/>
-          <bgColor rgb="FFCC0000"/>
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
       <font>
@@ -317,7 +1127,6 @@
           <bgColor rgb="FFF1C232"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
       <font>
@@ -325,22 +1134,235 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
         </patternFill>
       </fill>
-      <border/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="9"/>
+      <tableStyleElement type="headerRow" dxfId="8"/>
+      <tableStyleElement type="totalRow" dxfId="7"/>
+      <tableStyleElement type="firstColumn" dxfId="6"/>
+      <tableStyleElement type="lastColumn" dxfId="5"/>
+      <tableStyleElement type="firstRowStripe" dxfId="4"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="3"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="19"/>
+      <tableStyleElement type="totalRow" dxfId="18"/>
+      <tableStyleElement type="firstRowStripe" dxfId="17"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="16"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="15"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="14"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="13"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="12"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="11"/>
+      <tableStyleElement type="pageFieldValues" dxfId="10"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -530,27 +1552,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.38"/>
-    <col customWidth="1" min="2" max="2" width="24.75"/>
-    <col customWidth="1" min="3" max="3" width="4.75"/>
-    <col customWidth="1" min="4" max="4" width="48.0"/>
-    <col customWidth="1" min="5" max="5" width="41.63"/>
+    <col min="1" max="1" width="28.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="30.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="5.85714285714286" customWidth="1"/>
+    <col min="4" max="4" width="78.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="50.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,7 +1593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -584,7 +1610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
@@ -599,7 +1625,7 @@
       </c>
       <c r="E3" s="12"/>
     </row>
-    <row r="4">
+    <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
@@ -614,7 +1640,7 @@
       </c>
       <c r="E4" s="12"/>
     </row>
-    <row r="5">
+    <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -629,7 +1655,7 @@
       </c>
       <c r="E5" s="12"/>
     </row>
-    <row r="6">
+    <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
@@ -646,7 +1672,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
@@ -661,7 +1687,7 @@
       </c>
       <c r="E7" s="12"/>
     </row>
-    <row r="8">
+    <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
@@ -678,7 +1704,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
@@ -693,7 +1719,7 @@
       </c>
       <c r="E9" s="12"/>
     </row>
-    <row r="10">
+    <row r="10" customHeight="1" spans="1:5">
       <c r="A10" s="8" t="s">
         <v>25</v>
       </c>
@@ -710,22 +1736,690 @@
         <v>27</v>
       </c>
     </row>
+    <row r="11" customHeight="1" spans="1:5">
+      <c r="A11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:5">
+      <c r="A12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:5">
+      <c r="A13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:5">
+      <c r="A14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:5">
+      <c r="A15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:5">
+      <c r="A16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:5">
+      <c r="A17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:5">
+      <c r="A18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:5">
+      <c r="A19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:5">
+      <c r="A20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:5">
+      <c r="A21" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:5">
+      <c r="A22" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:5">
+      <c r="A23" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:5">
+      <c r="A24" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:5">
+      <c r="A25" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:5">
+      <c r="A26" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:5">
+      <c r="A27" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:5">
+      <c r="A28" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:5">
+      <c r="A29" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:5">
+      <c r="A30" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" customHeight="1" spans="1:5">
+      <c r="A31" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:5">
+      <c r="A32" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" customHeight="1" spans="1:5">
+      <c r="A33" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:5">
+      <c r="A34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:5">
+      <c r="A35" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" customHeight="1" spans="1:5">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" customHeight="1" spans="1:5">
+      <c r="A37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" customHeight="1" spans="1:5">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" customHeight="1" spans="1:5">
+      <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" customHeight="1" spans="1:5">
+      <c r="A40" s="8"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="8"/>
+    </row>
+    <row r="41" customHeight="1" spans="1:5">
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="8"/>
+    </row>
+    <row r="42" customHeight="1" spans="1:5">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" customHeight="1" spans="1:5">
+      <c r="A43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="8"/>
+    </row>
+    <row r="44" customHeight="1" spans="1:5">
+      <c r="A44" s="8"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="8"/>
+    </row>
+    <row r="45" customHeight="1" spans="1:5">
+      <c r="A45" s="8"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="8"/>
+    </row>
+    <row r="46" customHeight="1" spans="1:5">
+      <c r="A46" s="8"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="8"/>
+    </row>
+    <row r="47" customHeight="1" spans="1:5">
+      <c r="A47" s="8"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="8"/>
+    </row>
+    <row r="48" customHeight="1" spans="1:5">
+      <c r="A48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" customHeight="1" spans="1:5">
+      <c r="A49" s="8"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="8"/>
+    </row>
+    <row r="50" customHeight="1" spans="1:5">
+      <c r="A50" s="8"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="8"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C1000">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="C12">
+    <cfRule type="cellIs" dxfId="0" priority="54" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="53" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="52" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1000">
+  <conditionalFormatting sqref="C14">
+    <cfRule type="cellIs" dxfId="0" priority="51" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="50" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="49" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="cellIs" dxfId="0" priority="48" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="47" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="46" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="cellIs" dxfId="0" priority="45" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="44" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="43" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="cellIs" dxfId="0" priority="42" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="41" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="40" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="cellIs" dxfId="0" priority="39" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="38" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="37" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="cellIs" dxfId="0" priority="18" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="17" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="16" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="cellIs" dxfId="0" priority="33" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="32" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="31" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="13" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="cellIs" dxfId="0" priority="27" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="26" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="25" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"R"</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1000">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="C1:C11;C13;C17:C19;C21;C23;C51:C1000">
+    <cfRule type="cellIs" dxfId="2" priority="55" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="56" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="57" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
-  <drawing r:id="rId1"/>
+  <conditionalFormatting sqref="C31;C33:C50">
+    <cfRule type="cellIs" dxfId="0" priority="21" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="20" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="19" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Dokumentáció/tesztelés/Teszteles.xlsx
+++ b/Dokumentáció/tesztelés/Teszteles.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="121">
   <si>
     <t>Mit</t>
   </si>
@@ -257,6 +257,9 @@
     <t>resp.text() -&gt; resp.json()</t>
   </si>
   <si>
+    <t>sikeres kiszínezés, adatbázis felvétel</t>
+  </si>
+  <si>
     <t>belépési oldal kikerülése</t>
   </si>
   <si>
@@ -266,7 +269,127 @@
     <t>localStorage-ban lévő értékek felülírása, vizsgálata</t>
   </si>
   <si>
+    <t>Kijelentjkezés</t>
+  </si>
+  <si>
+    <t>adatok törlődnek</t>
+  </si>
+  <si>
     <t>A főoldal jelenik meg, bejelentkezés nélkül használhatja</t>
+  </si>
+  <si>
+    <t>Vizsgálat bejelentkezett felhasználóra</t>
+  </si>
+  <si>
+    <t>automatikos átirányítás</t>
+  </si>
+  <si>
+    <t>Honkong</t>
+  </si>
+  <si>
+    <t>Nincs adat</t>
+  </si>
+  <si>
+    <t>nem megfelelő kulcs a countries.json-ban</t>
+  </si>
+  <si>
+    <t>Afghanisztán</t>
+  </si>
+  <si>
+    <t>Megjelennek az adatok</t>
+  </si>
+  <si>
+    <t>Keresés gomb</t>
+  </si>
+  <si>
+    <t>egyértelműsítő vonal nem helyezkedik el, rossz elemek látszódnak</t>
+  </si>
+  <si>
+    <t>CSS osztályok kihasználása</t>
+  </si>
+  <si>
+    <t>megfelelő visszajelzés és elemek</t>
+  </si>
+  <si>
+    <t>Már meglátogatott országok kiszínezetlenek</t>
+  </si>
+  <si>
+    <t>Betöltéskori lépés, új API a meglátogatottak lekérésére</t>
+  </si>
+  <si>
+    <t>Automatikus kiszínezés</t>
+  </si>
+  <si>
+    <t>ikonok megjelenése</t>
+  </si>
+  <si>
+    <t>A világ svg eltakarhatja őket</t>
+  </si>
+  <si>
+    <t>z-index CSS tulajdonság növelése</t>
+  </si>
+  <si>
+    <t>megjelenéskor szélességük változó, egyesek kilógnak</t>
+  </si>
+  <si>
+    <t>megjelenéskor megfelelő szélesség, ebben az esetben mindig láthatóak</t>
+  </si>
+  <si>
+    <t>Keresés eredmény lista</t>
+  </si>
+  <si>
+    <t>hosszabb nevű országok</t>
+  </si>
+  <si>
+    <t>A név lelóg a képernyőn kívülre</t>
+  </si>
+  <si>
+    <t>overflow CSS tulajdonság kikapcsolása</t>
+  </si>
+  <si>
+    <t>Látható nevek</t>
+  </si>
+  <si>
+    <t>overflow-y CSS tulajdonság használatos mostantól</t>
+  </si>
+  <si>
+    <t>Meglátogatott orszáhgok listája</t>
+  </si>
+  <si>
+    <t>Egyes országok többször megjelennek</t>
+  </si>
+  <si>
+    <t>Adatbázis "visits" táblájában többször9s feljegyzés</t>
+  </si>
+  <si>
+    <t>"I WAS HERE" gomb</t>
+  </si>
+  <si>
+    <t>Már meglátogatott országot többszörösen "meglátogathat"</t>
+  </si>
+  <si>
+    <t>Adatbázis egyéniségi kitétel létrehozása</t>
+  </si>
+  <si>
+    <t>Nincsenek többszörös országok</t>
+  </si>
+  <si>
+    <t>Már meglátogatott ország esetén nem okoz új felvételt</t>
+  </si>
+  <si>
+    <t>Keresés API</t>
+  </si>
+  <si>
+    <t>visszatérési lista</t>
+  </si>
+  <si>
+    <t>Legtöbb esetben üres, mikor van megfeleő ország</t>
+  </si>
+  <si>
+    <t>rosszul formázott SQL lekérdezés</t>
+  </si>
+  <si>
+    <t>Az összes jó találat</t>
   </si>
 </sst>
 </file>
@@ -1039,7 +1162,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1053,6 +1176,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1561,10 +1692,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="4"/>
@@ -2107,198 +2238,655 @@
     </row>
     <row r="34" customHeight="1" spans="1:5">
       <c r="A34" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" customHeight="1" spans="1:5">
+      <c r="A35" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="10" t="s">
+      <c r="B35" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D35" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:5">
+      <c r="A36" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="13"/>
+    </row>
+    <row r="37" customHeight="1" spans="1:5">
+      <c r="A37" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="1:5">
-      <c r="A35" s="8" t="s">
+      <c r="C37" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:5">
+      <c r="A38" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E35" s="8"/>
-    </row>
-    <row r="36" customHeight="1" spans="1:5">
-      <c r="A36" s="8"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="8"/>
-    </row>
-    <row r="37" customHeight="1" spans="1:5">
-      <c r="A37" s="8"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="8"/>
-    </row>
-    <row r="38" customHeight="1" spans="1:5">
-      <c r="A38" s="8"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="8"/>
+      <c r="B38" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="13"/>
     </row>
     <row r="39" customHeight="1" spans="1:5">
-      <c r="A39" s="8"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="8"/>
+      <c r="A39" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="40" customHeight="1" spans="1:5">
-      <c r="A40" s="8"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="8"/>
+      <c r="A40" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="13"/>
     </row>
     <row r="41" customHeight="1" spans="1:5">
-      <c r="A41" s="8"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="8"/>
+      <c r="A41" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="42" customHeight="1" spans="1:5">
-      <c r="A42" s="8"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="8"/>
+      <c r="A42" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" s="13"/>
     </row>
     <row r="43" customHeight="1" spans="1:5">
-      <c r="A43" s="8"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="8"/>
+      <c r="A43" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="44" customHeight="1" spans="1:5">
-      <c r="A44" s="8"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="8"/>
+      <c r="A44" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" s="13"/>
     </row>
     <row r="45" customHeight="1" spans="1:5">
-      <c r="A45" s="8"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="8"/>
+      <c r="A45" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="46" customHeight="1" spans="1:5">
-      <c r="A46" s="8"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="11"/>
+      <c r="A46" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>96</v>
+      </c>
       <c r="E46" s="8"/>
     </row>
     <row r="47" customHeight="1" spans="1:5">
-      <c r="A47" s="8"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="8"/>
+      <c r="A47" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="48" customHeight="1" spans="1:5">
-      <c r="A48" s="8"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="8"/>
+      <c r="A48" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="49" customHeight="1" spans="1:5">
-      <c r="A49" s="8"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="11"/>
+      <c r="A49" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>101</v>
+      </c>
       <c r="E49" s="8"/>
     </row>
     <row r="50" customHeight="1" spans="1:5">
-      <c r="A50" s="8"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="8"/>
+      <c r="A50" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:5">
+      <c r="A51" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:5">
+      <c r="A52" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:5">
+      <c r="A53" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="9"/>
+      <c r="C53" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:5">
+      <c r="A54" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E54" s="8"/>
+    </row>
+    <row r="55" customHeight="1" spans="1:5">
+      <c r="A55" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" s="9"/>
+      <c r="C55" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E55" s="8"/>
+    </row>
+    <row r="56" customHeight="1" spans="1:5">
+      <c r="A56" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:5">
+      <c r="A57" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E57" s="8"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="0" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="116" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="115" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="114" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="0" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="113" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="112" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="111" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="0" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="110" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="109" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="108" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="0" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="107" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="106" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="105" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="cellIs" dxfId="0" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="104" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="103" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="102" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
+    <cfRule type="cellIs" dxfId="0" priority="101" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="100" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="99" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="cellIs" dxfId="0" priority="80" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="79" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="78" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="cellIs" dxfId="0" priority="95" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="94" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="93" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="cellIs" dxfId="0" priority="77" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="76" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="75" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="cellIs" dxfId="0" priority="89" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="88" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="87" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="cellIs" dxfId="0" priority="74" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="73" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="72" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="cellIs" dxfId="0" priority="71" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="70" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="69" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="cellIs" dxfId="0" priority="68" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="67" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="66" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="cellIs" dxfId="0" priority="65" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="64" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="63" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="cellIs" dxfId="0" priority="36" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="35" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="34" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="cellIs" dxfId="0" priority="27" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="26" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="25" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41">
+    <cfRule type="cellIs" dxfId="0" priority="24" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="23" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="22" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="cellIs" dxfId="0" priority="33" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="32" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="31" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="cellIs" dxfId="0" priority="30" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="29" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="28" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="cellIs" dxfId="0" priority="21" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="20" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="19" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="cellIs" dxfId="0" priority="18" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="17" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="16" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="13" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38:C39">
     <cfRule type="cellIs" dxfId="0" priority="39" operator="equal">
       <formula>"I"</formula>
     </cfRule>
@@ -2309,114 +2897,26 @@
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="cellIs" dxfId="0" priority="18" operator="equal">
+  <conditionalFormatting sqref="C1:C11;C13;C17:C19;C21;C23;C65:C66;C74:C1000">
+    <cfRule type="cellIs" dxfId="2" priority="117" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="118" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="119" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="17" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31;C33:C39;C45:C46;C49;C52:C54;C56:C57">
+    <cfRule type="cellIs" dxfId="2" priority="81" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="82" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="16" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="cellIs" dxfId="0" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="83" operator="equal">
       <formula>"I"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="32" operator="equal">
-      <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="31" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
-      <formula>"I"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="14" operator="equal">
-      <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="13" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="cellIs" dxfId="0" priority="27" operator="equal">
-      <formula>"I"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="26" operator="equal">
-      <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="25" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
-      <formula>"I"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
-      <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
-      <formula>"I"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
-      <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
-      <formula>"I"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
-      <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>"I"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C11;C13;C17:C19;C21;C23;C51:C1000">
-    <cfRule type="cellIs" dxfId="2" priority="55" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="56" operator="equal">
-      <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="57" operator="equal">
-      <formula>"I"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31;C33:C50">
-    <cfRule type="cellIs" dxfId="0" priority="21" operator="equal">
-      <formula>"I"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="20" operator="equal">
-      <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="19" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
